--- a/biology/Zoologie/Heliophanus_melinus/Heliophanus_melinus.xlsx
+++ b/biology/Zoologie/Heliophanus_melinus/Heliophanus_melinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saltique de miel
-Heliophanus melinus, le Saltique de miel, est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+Heliophanus melinus, le Saltique de miel, est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Europe et en Turquie[1].
-En France, elle vit le long du littoral méditerranéen et dans le centre-ouest[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Europe et en Turquie.
+En France, elle vit le long du littoral méditerranéen et dans le centre-ouest.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 3,8 à 5,3 mm et les femelles de 4,55 à 5,85 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 3,8 à 5,3 mm et les femelles de 4,55 à 5,85 mm.
 Le mâle est très sombre et à céphalothorax parsemé de poils blancs. Son abdomen noir est marqué d'une bande basale blanche se poursuivant sur les flancs, ainsi que de deux bandes blanches.
 La femelle a un céphalothorax brun foncé et un abdomen noir à motifs identiques à ceux du mâle mais jaunâtre clair et plus étendus.
 </t>
@@ -577,7 +593,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes sont visibles presque toute l'année.
 </t>
@@ -608,12 +626,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par L. Koch en 1867.
-Heliophanus expers[4] et Heliophanus grammicus[4] ont été placées en synonymie par Simon en 1937[5].
-Heliophanus viriatus[4] a été placée en synonymie par Cantarella en 1974[6].
-Attus mannii[7] a été placée en synonymie par Breitling, Bauer, Schäfer, Morano, Barrientos et Blick en 2016[8].
+Heliophanus expers et Heliophanus grammicus ont été placées en synonymie par Simon en 1937.
+Heliophanus viriatus a été placée en synonymie par Cantarella en 1974.
+Attus mannii a été placée en synonymie par Breitling, Bauer, Schäfer, Morano, Barrientos et Blick en 2016.
 </t>
         </is>
       </c>
@@ -642,7 +662,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(de) L. Koch, 1867, « Zur Arachniden und Myriapoden-Fauna Süd-Europas », Verhandlungen der Kaiserlich-Königlichen Zoologisch-Botanischen Gesellschaft in Wien, vol. 17, p. 857-900 (lire en ligne).</t>
         </is>
